--- a/Électronique/Electronic budget planing.xlsx
+++ b/Électronique/Electronic budget planing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulavaldti-my.sharepoint.com/personal/matot9_ulaval_ca/Documents/Github/design3/Électronique/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="8_{F4AF0EF8-8E10-4CF9-8076-0BC56F572DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15B58E3C-51C4-4337-90CE-8794F0809E9A}"/>
+  <xr:revisionPtr revIDLastSave="390" documentId="8_{F4AF0EF8-8E10-4CF9-8076-0BC56F572DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3360EB4-8A64-44DA-9C28-1AE34EEC9221}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EB5A697F-0613-4937-9779-A2AEDA335630}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{EB5A697F-0613-4937-9779-A2AEDA335630}"/>
   </bookViews>
   <sheets>
     <sheet name="Acquisition channel" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="69">
   <si>
     <t>Required</t>
   </si>
@@ -225,23 +225,36 @@
     <t>MCP1501-25E/SN</t>
   </si>
   <si>
-    <t xml:space="preserve">	
-Series Voltage Ref Fixed 2.5V V ±0.1%</t>
-  </si>
-  <si>
-    <t>Supply current</t>
-  </si>
-  <si>
-    <t>800 μA</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Unit max supply current</t>
+  </si>
+  <si>
+    <t>Extended supply current</t>
+  </si>
+  <si>
+    <t>Series Voltage Ref Fixed 2.5V V ±0.1%</t>
+  </si>
+  <si>
+    <t>CD74HCT4053M96</t>
+  </si>
+  <si>
+    <t>CMOS Analog MUX/DEMUX 2X1</t>
+  </si>
+  <si>
+    <t>296-26030-1-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ [$$-C0C]_ ;_ * \(#,##0.00\)\ [$$-C0C]_ ;_ * &quot;-&quot;??_)\ [$$-C0C]_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.000&quot; mA&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.0&quot; mA&quot;"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -304,7 +317,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -435,17 +448,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -486,13 +488,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -500,10 +548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -512,9 +557,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -530,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -542,15 +584,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,7 +596,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -572,13 +605,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -587,35 +620,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,14 +644,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -654,6 +739,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -953,369 +1042,393 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14AF596-72B6-4068-B240-BE4D8ECB5EC6}">
-  <dimension ref="B1:N32"/>
+  <dimension ref="B1:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="D6:E6"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="1"/>
-    <col min="10" max="10" width="16.85546875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="17.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.41796875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.41796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.26171875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.83984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.26171875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.68359375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.26171875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="11.41796875" style="1"/>
+    <col min="10" max="10" width="16.83984375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11.41796875" style="1"/>
+    <col min="13" max="13" width="17.68359375" style="1" customWidth="1"/>
     <col min="14" max="14" width="24" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="1"/>
+    <col min="15" max="15" width="9.9453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.26171875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.41796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+    <row r="1" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="2" spans="2:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
-      <c r="M2" s="17" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="38"/>
+      <c r="M2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="N2" s="39"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="53"/>
+    </row>
+    <row r="3" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="56" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="O3" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="2">
         <v>1</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>2.72</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <f>I4*H4</f>
         <v>2.72</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="57">
+        <f>SUM(J4:J5)</f>
+        <v>4.28</v>
+      </c>
+      <c r="O4" s="59">
+        <v>10</v>
+      </c>
+      <c r="P4" s="61">
+        <f>O4*N4</f>
+        <v>42.800000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="J5" s="7">
+        <f>I5*H5</f>
+        <v>1.56</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="52">
         <f>SUM(J4:J6)</f>
         <v>6.9600000000000009</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="O5" s="60">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="P5" s="62">
+        <f>O5*N5</f>
+        <v>69.600000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.52</v>
-      </c>
-      <c r="J5" s="9">
-        <f>I5*H5</f>
-        <v>1.56</v>
-      </c>
-      <c r="M5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="26">
-        <f>SUM(J4:J5)</f>
-        <v>4.28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="13">
         <v>1</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="20">
         <v>2.68</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="21">
         <f>I6*H6</f>
         <v>2.68</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="13"/>
-    </row>
-    <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-    </row>
-    <row r="9" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="28"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="33" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="E10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="30" t="s">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>9.8699999999999992</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="30">
         <v>1</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="30">
         <v>10</v>
       </c>
-      <c r="J11" s="37" t="s">
+      <c r="J11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="37"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="2">
         <v>3</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>15.37</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="2">
         <v>7</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="2">
         <v>42</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="39" t="s">
+      <c r="K12" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="37"/>
-    </row>
-    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="13">
         <v>1</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="20">
         <v>21.99</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="13">
         <v>7</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="13">
         <v>48</v>
       </c>
-      <c r="J13" s="38" t="s">
+      <c r="J13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="K13" s="40" t="s">
+      <c r="K13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="37"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-    </row>
-    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1326,211 +1439,209 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+    <row r="16" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B16" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="27" t="s">
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="22" t="s">
+      <c r="H17" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31" t="s">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="2:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B18" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="13">
         <v>70</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="33">
         <v>1.3415999999999999</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="21">
         <f>I18*H18</f>
         <v>93.911999999999992</v>
       </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-    </row>
-    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-    </row>
-    <row r="21" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="2:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="6"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B21" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="27" t="s">
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="22" t="s">
+      <c r="H22" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="44" t="s">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="6">
         <v>2.72</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="7">
         <f>I23*H23</f>
         <v>2.72</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="5"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="4"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="2:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1541,7 +1652,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1552,136 +1663,165 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
+    <row r="28" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B28" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="19"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="27" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="38"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="32"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="44" t="s">
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="40">
         <v>1</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="6">
         <v>2.72</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="7">
         <f>I30*H30</f>
         <v>2.72</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="44" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31" s="40">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="J31" s="7">
+        <f>I31*H31</f>
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D32" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E32" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F32" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G32" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H32" s="40">
         <v>1</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I32" s="6">
         <v>2.67</v>
       </c>
-      <c r="J31" s="9">
-        <f>I31*H31</f>
+      <c r="J32" s="7">
+        <f>I32*H32</f>
         <v>2.67</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="15" t="s">
+    <row r="33" spans="2:10" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B33" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D33" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E33" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F33" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H33" s="13">
         <v>1</v>
       </c>
-      <c r="I32" s="25">
+      <c r="I33" s="20">
         <v>1.58</v>
       </c>
-      <c r="J32" s="9">
-        <f>I32*H32</f>
+      <c r="J33" s="21">
+        <f>I33*H33</f>
         <v>1.58</v>
       </c>
     </row>
@@ -1705,99 +1845,140 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7ECE8D-5EDB-484C-A8D0-768ED5127998}">
-  <dimension ref="B2:J6"/>
+  <dimension ref="B2:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="5" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.26171875" customWidth="1"/>
+    <col min="3" max="3" width="28.26171875" customWidth="1"/>
+    <col min="4" max="7" width="24.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+    <row r="2" spans="2:11" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="G3" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="13"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="E4" s="45">
+        <v>10</v>
+      </c>
+      <c r="F4" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="48">
+        <f>E4*F4</f>
+        <v>8</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="13"/>
+      <c r="E6" s="40">
+        <v>10</v>
+      </c>
+      <c r="F6" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="G6" s="48">
+        <f>E6*F6</f>
+        <v>9</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="50">
+        <f>SUM(G4:G6)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Électronique/Electronic budget planing.xlsx
+++ b/Électronique/Electronic budget planing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulavaldti-my.sharepoint.com/personal/matot9_ulaval_ca/Documents/Github/design3/Électronique/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="390" documentId="8_{F4AF0EF8-8E10-4CF9-8076-0BC56F572DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3360EB4-8A64-44DA-9C28-1AE34EEC9221}"/>
+  <xr:revisionPtr revIDLastSave="391" documentId="8_{F4AF0EF8-8E10-4CF9-8076-0BC56F572DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C3049B9-FB53-4485-87E1-116FBF965942}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="20928" windowHeight="12432" xr2:uid="{EB5A697F-0613-4937-9779-A2AEDA335630}"/>
   </bookViews>
@@ -253,8 +253,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ * #,##0.00_)\ &quot;$&quot;_ ;_ * \(#,##0.00\)\ &quot;$&quot;_ ;_ * &quot;-&quot;??_)\ &quot;$&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ [$$-C0C]_ ;_ * \(#,##0.00\)\ [$$-C0C]_ ;_ * &quot;-&quot;??_)\ [$$-C0C]_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="0.000&quot; mA&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.0&quot; mA&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.000&quot; mA&quot;"/>
+    <numFmt numFmtId="166" formatCode="0.0&quot; mA&quot;"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -540,7 +540,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -644,44 +644,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -708,10 +689,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -719,6 +697,15 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1044,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14AF596-72B6-4068-B240-BE4D8ECB5EC6}">
   <dimension ref="B1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:J33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1069,23 +1056,23 @@
   <sheetData>
     <row r="1" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="2" spans="2:16" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="38"/>
-      <c r="M2" s="37" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+      <c r="M2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="53"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="3" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="22" t="s">
@@ -1115,16 +1102,16 @@
       <c r="J3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="56" t="s">
+      <c r="O3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="47" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1160,14 +1147,14 @@
       <c r="M4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="57">
+      <c r="N4" s="50">
         <f>SUM(J4:J5)</f>
         <v>4.28</v>
       </c>
-      <c r="O4" s="59">
+      <c r="O4" s="52">
         <v>10</v>
       </c>
-      <c r="P4" s="61">
+      <c r="P4" s="53">
         <f>O4*N4</f>
         <v>42.800000000000004</v>
       </c>
@@ -1204,16 +1191,16 @@
       <c r="M5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="52">
+      <c r="N5" s="45">
         <f>SUM(J4:J6)</f>
         <v>6.9600000000000009</v>
       </c>
-      <c r="O5" s="60">
-        <v>10</v>
-      </c>
-      <c r="P5" s="62">
+      <c r="O5" s="13">
+        <v>8</v>
+      </c>
+      <c r="P5" s="54">
         <f>O5*N5</f>
-        <v>69.600000000000009</v>
+        <v>55.680000000000007</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
@@ -1269,18 +1256,18 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="38"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57"/>
       <c r="L9" s="23"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.55000000000000004">
@@ -1440,17 +1427,17 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="38"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
@@ -1547,17 +1534,17 @@
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="38"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1664,17 +1651,17 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="38"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="57"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="22" t="s">
@@ -1709,22 +1696,22 @@
       <c r="B30" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="45" t="s">
+      <c r="F30" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="40" t="s">
+      <c r="G30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="40">
+      <c r="H30" s="2">
         <v>1</v>
       </c>
       <c r="I30" s="6">
@@ -1739,22 +1726,22 @@
       <c r="B31" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="45" t="s">
+      <c r="F31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="G31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="40">
+      <c r="H31" s="2">
         <v>1</v>
       </c>
       <c r="I31" s="6">
@@ -1769,22 +1756,22 @@
       <c r="B32" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="44" t="s">
+      <c r="E32" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="40" t="s">
+      <c r="F32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="40" t="s">
+      <c r="G32" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="40">
+      <c r="H32" s="2">
         <v>1</v>
       </c>
       <c r="I32" s="6">
@@ -1845,7 +1832,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7ECE8D-5EDB-484C-A8D0-768ED5127998}">
-  <dimension ref="B2:K9"/>
+  <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -1883,10 +1870,10 @@
       <c r="E3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="38" t="s">
         <v>64</v>
       </c>
       <c r="H3" s="3"/>
@@ -1898,19 +1885,19 @@
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="5">
         <v>10</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="39">
         <v>0.8</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="41">
         <f>E4*F4</f>
         <v>8</v>
       </c>
@@ -1923,10 +1910,10 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="47"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="31"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1937,19 +1924,19 @@
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="40">
         <v>0.9</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="41">
         <f>E6*F6</f>
         <v>9</v>
       </c>
@@ -1959,23 +1946,17 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="50">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="43">
         <f>SUM(G4:G6)</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F8" s="41"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="F9" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
